--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lucas Ferreira-Sistemas digitais</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Josivaldo Ferreira-Circuitos Elétricos 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro M.-Circuitos elétricos 2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lucas Ferreira-Sistemas digitais</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Josivaldo Ferreira-Circuitos Elétricos 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro M.-Circuitos elétricos 2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, -, -, Josivaldo Ferreira-Programação-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Andre Barros-EAP</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R.M.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Andre Lucca-Acionamentos-2A, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pedro Francisco-MTRM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>João Rodrigues-CAD</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos-2A, Pedro Bispo-Acionamentos Elétricos-2A, André Guimarães-CAD-2A, André Guimarães-CAD-2A]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Andre Barros-EAP</t>
+          <t>Andre B.-Eletrônica analóg. e de potência</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R.M.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro M.-Programação de computadores-2A, Sandro M.-Programação de computadores-2A, Sandro M.-Programação de computadores-2A, Sandro M.-Programação de computadores-2A]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pedro Francisco-MTRM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>João Rodrigues-CAD</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos-2A, Pedro Bispo-Acionamentos Elétricos-2A, João Paulo-Sistemas digitais-2A, João Paulo-Sistemas digitais-2A]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potência</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro-Circuitos elétricos 2</t>
         </is>
       </c>
     </row>
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos-2A, Sandro-Programação de Computadores-2A]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R.M.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sandro M.-Circuitos elétricos 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[João Paulo-Sistemas digitais-2A, João Paulo-Sistemas digitais-2A, -]</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos-2A, Sandro-Programação de Computadores-2A]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sandro M.-Circuitos elétricos 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potência</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R.M.</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos-2A, Sandro-Programação de Computadores-2A]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos-2A, Pedro Bispo-Acionamentos Elétricos-2A, André Guimarães-CAD-2A, André Guimarães-CAD-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R.M.</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos-2A, Sandro-Programação de Computadores-2A]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Sandro M.-Programação de computadores-2A, Sandro M.-Programação de computadores-2A, Sandro M.-Programação de computadores-2A, Sandro M.-Programação de computadores-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos-2A, Pedro Bispo-Acionamentos Elétricos-2A, João Paulo-Sistemas digitais-2A, João Paulo-Sistemas digitais-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potência</t>
+          <t>[André Guimarães-CAD-2A, André Guimarães-CAD-2A]</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R.M.</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro-Circuitos elétricos 2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[João Paulo-Sistemas digitais-2A, João Paulo-Sistemas digitais-2A, -]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétricos 2</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos-2A, Sandro-Programação de Computadores-2A]</t>
+          <t>[André Guimarães-CAD-2A, André Guimarães-CAD-2A]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R.M.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potência</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos-2A, -, -, Sandro-Programação de Computadores-2A]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas digitais-2A, João Paulo-Sistemas digitais-2A, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos-2A, Sandro-Programação de Computadores-2A]</t>
+          <t>Sandro-Circuitos elétricos 2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potência</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos-2A, -, -, Sandro-Programação de Computadores-2A]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potência</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos-2A, Sandro-Programação de Computadores-2A]</t>
+          <t>Sandro-Circuitos elétricos 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos-2A, -, -, Sandro-Programação de Computadores-2A]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potência</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos-2A, Sandro-Programação de Computadores-2A]</t>
+          <t>Nilton Maia-M.T.R.M.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos-2A, -, -, Sandro-Programação de Computadores-2A]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD-2A, André Guimarães-CAD-2A]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R.M.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R.M.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétricos 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas digitais-2A, João Paulo-Sistemas digitais-2A, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD-2A, André Guimarães-CAD-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores, -, -]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potência</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos-2A, -, -, Sandro-Programação de Computadores-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétricos 2</t>
+          <t>[-, André Guimarães-CAD]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores, -, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potência</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos-2A, -, -, Sandro-Programação de Computadores-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétricos 2</t>
+          <t>[-, André Guimarães-CAD]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores, -, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos-2A, -, -, Sandro-Programação de Computadores-2A]</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
     </row>
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R.M.</t>
+          <t>[-, João Paulo-Sistemas digitais, João Paulo-Sistemas digitais]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores, -, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos-2A, -, -, Sandro-Programação de Computadores-2A]</t>
+          <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R.M.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1106,6 +1106,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, João Paulo-Sistemas digitais, João Paulo-Sistemas digitais]</t>
         </is>
       </c>
     </row>
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, -]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potên</t>
+          <t>[Sandro-Programação de Computadores, -, -, -]</t>
         </is>
       </c>
     </row>
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, André Guimarães-CAD]</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, -]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Programação de Computadores, -, -, -]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, André Guimarães-CAD]</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>[Sandro-Programação de Computadores, -, -, -]</t>
         </is>
       </c>
     </row>
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, João Paulo-Sistemas digitais, João Paulo-Sistemas digitais]</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potên</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Programação de Computadores, -, -, -]</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, André Guimarães-CAD]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, -, -]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[André Guimarães-CAD, -]</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, João Paulo-Sistemas digitais, -]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-, João Paulo-Sistemas digitais, João Paulo-Sistemas digitais]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, -]</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, -]</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, -]</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[-, André Guimarães-CAD]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, João Paulo-Sistemas digitais, -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, -, -]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potên</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-, João Paulo-Sistemas digitais, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Programação de Computadores, -, -, -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, João Paulo-Sistemas digitais, João Paulo-Sistemas digitais]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>[-, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,22 +601,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD, -]</t>
+          <t>[Sandro-Programação de Computadores, -, -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>[-, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,22 +633,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD, -]</t>
+          <t>[Sandro-Programação de Computadores, -, -, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>[-, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,22 +665,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Programação de Computadores, -, -, -]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potên</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-, João Paulo-Sistemas digitais, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, -, -, -]</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>[-, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, -, -, -]</t>
+          <t>[-, André Guimarães-CAD]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potên</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, João Paulo-Sistemas digitais, João Paulo-Sistemas digitais]</t>
+          <t>[-, André Guimarães-CAD]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>[-, -, -, Sandro-Programação de Computadores]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[-, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, João Paulo-Sistemas digitais]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,22 +601,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, -, -, -]</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
+          <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, João Paulo-Sistemas digitais]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, -, -, -]</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, -, -, -]</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">

--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>[-, André Guimarães-CAD]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>[-, André Guimarães-CAD]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[-, -, -, Sandro-Programação de Computadores]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Andre B.-Eletrônica analóg. e de potên</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[-, -, João Paulo-Sistemas digitais]</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>[João Paulo-Sistemas digitais, -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[-, -, João Paulo-Sistemas digitais]</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
     </row>
@@ -633,22 +633,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>[João Paulo-Sistemas digitais, -, -]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Nilton Maia-M.T.R</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,22 +665,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, Sandro-Programação de Computadores]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potên</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, André Guimarães-CAD]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Eletrônica analóg. e de potên</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
+          <t>[-, -, João Paulo-Sistemas digitais]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, André Guimarães-CAD]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas digitais, -, -]</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, -, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>[-, -, João Paulo-Sistemas digitais]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Andre B.-Eletrônica analóg. e de potên</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas digitais, -, -]</t>
+          <t>Sandro-Circuitos elétrico</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, -, Sandro-Programação de Computadores]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>[-, Sandro-Programação de Computadores, -, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton Maia-M.T.R</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, -, -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>[-, Sandro-Programação de Computadores, -, -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-M. T. R.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potên</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-M. T. R.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andre B.-Eletrônica analóg. e de potên</t>
+          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Sistemas digitais]</t>
+          <t>[-, André Guimarães-CAD]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Sandro-Programação de Computadores, -, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro-Circuitos Elétrico</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, -, -, -]</t>
+          <t>[-, -, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Sistemas digitais]</t>
+          <t>[-, André Guimarães-CAD]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
+          <t>[-, Sandro-Programação de Computadores, -, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro-Circuitos Elétrico</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos elétrico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, -, -, Sandro-Programação de Computadores]</t>
+          <t>[-, -, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, André Guimarães-CAD]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, Sandro-Programação de Computadores, -, -]</t>
+          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nilton Maia-M.T.R</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Acionamentos Elétricos, -, -, -]</t>
+          <t>[-, -, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, André Guimarães-CAD]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-, Sandro-Programação de Computadores, -, -]</t>
+          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Eletronica Analógica e de Potên</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Eletronica Analógica e de Potên</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">

--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -478,12 +478,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Sistemas Digitais]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nilton-M. T. R.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, -]</t>
+          <t>[Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Sistemas Digitais]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nilton-M. T. R.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro-Circuitos Elétrico</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, -, Pedro Bispo-Acionamentos Elétricos, -]</t>
+          <t>[Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Sistemas Digitais]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, André Guimarães-CAD]</t>
+          <t>[João Paulo-Sistemas Digitais, -, -]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, Sandro-Programação de Computadores, -, -]</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Sistemas Digitais]</t>
+          <t>[João Paulo-Sistemas Digitais, -, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, André Guimarães-CAD]</t>
+          <t>[João Paulo-Sistemas Digitais, -, -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, Sandro-Programação de Computadores, -, -]</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos Elétrico</t>
+          <t>Nilton-M. T. R.</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Sistemas Digitais]</t>
+          <t>[João Paulo-Sistemas Digitais, -, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, André Guimarães-CAD]</t>
+          <t>[João Paulo-Sistemas Digitais, -, -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-M. T. R.</t>
         </is>
       </c>
     </row>
@@ -670,17 +670,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Sistemas Digitais]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, André Guimarães-CAD]</t>
+          <t>[João Paulo-Sistemas Digitais, -, -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-, Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -]</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Eletronica Analógica e de Potên</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Eletronica Analógica e de Potên</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cleidson-Eletronica Analógica e de Potên</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cleidson-Eletronica Analógica e de Potên</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">

--- a/data/turm/MCT-2A.xlsx
+++ b/data/turm/MCT-2A.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos Elétrico</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, João Paulo-Sistemas Digitais, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD, -]</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, -, -]</t>
+          <t>[-, João Paulo-Sistemas Digitais, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD, -]</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nilton-M. T. R.</t>
+          <t>Sandro-Circuitos Elétrico</t>
         </is>
       </c>
     </row>
@@ -633,22 +633,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Sandro-Programação de Computadores, Pedro Bispo-Acionamentos Elétricos, -, -]</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, -, -]</t>
+          <t>[-, João Paulo-Sistemas Digitais, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, -, -]</t>
+          <t>[-, -, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD, -]</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[André Guimarães-CAD, -]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, João Paulo-Sistemas Digitais, -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, -, -]</t>
+          <t>[-, -, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[André Guimarães-CAD, -]</t>
+          <t>[Pedro Bispo-Acionamentos Elétricos, -, Sandro-Programação de Computadores, -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-M. T. R.</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cleidson-Eletronica Analógica e de Potên</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cleidson-Eletronica Analógica e de Potên</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Eletronica Analógica e de Potên</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Eletronica Analógica e de Potên</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
